--- a/CA1000/explorationData/metabolomic_patientinfo_usborn.xlsx
+++ b/CA1000/explorationData/metabolomic_patientinfo_usborn.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/WorkStation/CA1000/explorationData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/github/WorkStation/CA1000/explorationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66815649-81DC-0E42-A467-79416C95134A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C97E4A-CA8C-4F4C-9AAC-992CAE8914F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26320" activeTab="1" xr2:uid="{4377AA3B-FCA0-5E44-8F16-DAB2A9DBE543}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26320" activeTab="4" xr2:uid="{4377AA3B-FCA0-5E44-8F16-DAB2A9DBE543}"/>
   </bookViews>
   <sheets>
-    <sheet name="continuous_usborn" sheetId="1" r:id="rId1"/>
-    <sheet name="categorical_usborn" sheetId="2" r:id="rId2"/>
-    <sheet name="PTB categories" sheetId="3" r:id="rId3"/>
+    <sheet name="PTB categories" sheetId="3" r:id="rId1"/>
+    <sheet name="continuous_usborn" sheetId="1" r:id="rId2"/>
+    <sheet name="categorical_usborn" sheetId="2" r:id="rId3"/>
     <sheet name="categorical_ptb" sheetId="4" r:id="rId4"/>
+    <sheet name="categorical_ptb_earlyterm" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="249">
   <si>
     <t>race</t>
   </si>
@@ -844,13 +845,43 @@
   </si>
   <si>
     <t>Fisher = 0.001717 , chi square = 3.666e-08</t>
+  </si>
+  <si>
+    <t>Preterm (N = 496)</t>
+  </si>
+  <si>
+    <t>ET (N = 165)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term (N = 330) </t>
+  </si>
+  <si>
+    <t>ptb percentage (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et percentage (%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">term percentage (%) </t>
+  </si>
+  <si>
+    <t>chi-squared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mom born other than Mexico &amp; US </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -958,8 +989,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +1007,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1206,9 +1250,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1258,6 +1299,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1571,21 +1622,501 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9192DB84-C057-1648-905A-E8DCCB2DE253}">
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="60"/>
+      <c r="B1" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="63"/>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="63"/>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="63"/>
+      <c r="B8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="63"/>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="63"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="66"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="67"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="67"/>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="67"/>
+      <c r="B13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="67"/>
+      <c r="B14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="67"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="86" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="89"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="90"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="90"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="57"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="90"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" s="90"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="90"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="90"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="57"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="90"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="57"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="90"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="90"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="90"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="57"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="90"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="90"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="90"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="59"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="59"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="59"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="59"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="59"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="59"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="59"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="59"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="59"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EAAF67-8451-4247-A967-2E11B005E473}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +2127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +2141,7 @@
         <v>4.1691350000000002E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +2155,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1638,7 +2169,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +2183,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1666,7 +2197,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +2211,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1699,15 +2230,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D05F2E-E7C7-D74E-8380-A05E4FF3326A}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1720,15 +2251,15 @@
     <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C1" s="56" t="s">
+    <row r="1" spans="1:9">
+      <c r="C1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="101"/>
       <c r="G1" t="s">
         <v>185</v>
       </c>
@@ -1736,8 +2267,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="103" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1758,11 +2289,11 @@
       <c r="G2" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="99">
+      <c r="H2" s="98">
         <v>2.2E-16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="9"/>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1783,7 +2314,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="9"/>
       <c r="B4" s="21" t="s">
         <v>4</v>
@@ -1804,7 +2335,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="9"/>
       <c r="B5" s="21" t="s">
         <v>5</v>
@@ -1825,7 +2356,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="9"/>
       <c r="B6" s="21" t="s">
         <v>6</v>
@@ -1846,7 +2377,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="9"/>
       <c r="B7" s="26" t="s">
         <v>1</v>
@@ -1864,8 +2395,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:9" ht="17">
+      <c r="A8" s="103" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1886,11 +2417,11 @@
       <c r="G8" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="97">
         <v>3.571E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="9"/>
       <c r="B9" s="21" t="s">
         <v>32</v>
@@ -1908,7 +2439,7 @@
         <v>0.65639999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="10"/>
       <c r="B10" s="21" t="s">
         <v>33</v>
@@ -1926,7 +2457,7 @@
         <v>0.33850000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="11"/>
       <c r="B11" s="29" t="s">
         <v>1</v>
@@ -1944,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -1966,11 +2497,11 @@
       <c r="G12" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="97">
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="29" t="s">
         <v>37</v>
@@ -1988,8 +2519,8 @@
         <v>0.48209999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="104" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2014,7 +2545,7 @@
         <v>8.3400000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="29" t="s">
         <v>87</v>
@@ -2032,7 +2563,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
@@ -2058,7 +2589,7 @@
         <v>0.56520000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="29" t="s">
         <v>87</v>
@@ -2076,8 +2607,8 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:8" ht="17">
+      <c r="A18" s="104" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -2095,14 +2626,14 @@
       <c r="F18" s="20">
         <v>0.62560000000000004</v>
       </c>
-      <c r="G18" s="57" t="s">
+      <c r="G18" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="97">
         <v>2.4620000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="29" t="s">
         <v>90</v>
@@ -2120,7 +2651,7 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -2146,7 +2677,7 @@
         <v>0.77310000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="36" t="s">
         <v>1</v>
@@ -2164,7 +2695,7 @@
         <v>0.98970000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -2190,7 +2721,7 @@
         <v>0.51590000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="6"/>
       <c r="B23" s="22">
         <v>1</v>
@@ -2208,7 +2739,7 @@
         <v>0.48720000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -2234,7 +2765,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="6"/>
       <c r="B25" s="22">
         <v>1</v>
@@ -2252,7 +2783,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="6"/>
       <c r="B26" s="39" t="s">
         <v>1</v>
@@ -2270,7 +2801,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="6" t="s">
         <v>43</v>
       </c>
@@ -2296,7 +2827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="6"/>
       <c r="B28" s="22">
         <v>1</v>
@@ -2314,7 +2845,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="6"/>
       <c r="B29" s="39" t="s">
         <v>1</v>
@@ -2332,7 +2863,7 @@
         <v>0.2462</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
         <v>44</v>
       </c>
@@ -2358,7 +2889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="32" t="s">
         <v>1</v>
@@ -2376,7 +2907,7 @@
         <v>0.91539999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>45</v>
       </c>
@@ -2396,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="6"/>
       <c r="B33" s="22" t="s">
         <v>87</v>
@@ -2414,7 +2945,7 @@
         <v>0.55130000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="6"/>
       <c r="B34" s="39" t="s">
         <v>1</v>
@@ -2432,7 +2963,7 @@
         <v>0.44869999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="6" t="s">
         <v>46</v>
       </c>
@@ -2452,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="6"/>
       <c r="B36" s="22" t="s">
         <v>87</v>
@@ -2470,7 +3001,7 @@
         <v>0.44869999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="7"/>
       <c r="B37" s="32" t="s">
         <v>1</v>
@@ -2488,7 +3019,7 @@
         <v>0.55130000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -2507,14 +3038,14 @@
       <c r="F38" s="20">
         <v>0.82310000000000005</v>
       </c>
-      <c r="G38" s="100" t="s">
+      <c r="G38" s="99" t="s">
         <v>226</v>
       </c>
       <c r="H38" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="6"/>
       <c r="B39" s="22" t="s">
         <v>87</v>
@@ -2532,7 +3063,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="6"/>
       <c r="B40" s="39" t="s">
         <v>1</v>
@@ -2550,7 +3081,7 @@
         <v>0.15640000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="6" t="s">
         <v>47</v>
       </c>
@@ -2576,7 +3107,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="22" t="s">
         <v>87</v>
@@ -2594,7 +3125,7 @@
         <v>0.15640000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="7"/>
       <c r="B43" s="32" t="s">
         <v>1</v>
@@ -2612,7 +3143,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -2631,14 +3162,14 @@
       <c r="F44" s="20">
         <v>0.87439999999999996</v>
       </c>
-      <c r="G44" s="100" t="s">
+      <c r="G44" s="99" t="s">
         <v>202</v>
       </c>
       <c r="H44" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="22" t="s">
         <v>87</v>
@@ -2656,7 +3187,7 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="6"/>
       <c r="B46" s="39" t="s">
         <v>1</v>
@@ -2674,7 +3205,7 @@
         <v>8.9700000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="6" t="s">
         <v>49</v>
       </c>
@@ -2700,7 +3231,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="22" t="s">
         <v>87</v>
@@ -2718,7 +3249,7 @@
         <v>8.72E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="39" t="s">
         <v>1</v>
@@ -2736,7 +3267,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +3293,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="22" t="s">
         <v>87</v>
@@ -2780,7 +3311,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="39" t="s">
         <v>1</v>
@@ -2798,7 +3329,7 @@
         <v>0.74870000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
@@ -2824,7 +3355,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="6"/>
       <c r="B54" s="22" t="s">
         <v>87</v>
@@ -2842,7 +3373,7 @@
         <v>0.21790000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -2868,7 +3399,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="6"/>
       <c r="B56" s="22" t="s">
         <v>87</v>
@@ -2886,7 +3417,7 @@
         <v>0.1769</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="6"/>
       <c r="B57" s="39" t="s">
         <v>1</v>
@@ -2904,7 +3435,7 @@
         <v>0.43080000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="6" t="s">
         <v>51</v>
       </c>
@@ -2924,7 +3455,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="6"/>
       <c r="B59" s="22" t="s">
         <v>87</v>
@@ -2942,7 +3473,7 @@
         <v>0.1744</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="39" t="s">
         <v>1</v>
@@ -2960,7 +3491,7 @@
         <v>0.6179</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="6" t="s">
         <v>52</v>
       </c>
@@ -2980,7 +3511,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="6"/>
       <c r="B62" s="39" t="s">
         <v>1</v>
@@ -2998,7 +3529,7 @@
         <v>0.7923</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
@@ -3018,7 +3549,7 @@
         <v>0.2077</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="6"/>
       <c r="B64" s="22" t="s">
         <v>87</v>
@@ -3036,7 +3567,7 @@
         <v>0.14360000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10">
       <c r="A65" s="7"/>
       <c r="B65" s="32" t="s">
         <v>1</v>
@@ -3054,7 +3585,7 @@
         <v>0.64870000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -3074,7 +3605,7 @@
         <v>0.92559999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10">
       <c r="A67" s="6"/>
       <c r="B67" s="22" t="s">
         <v>87</v>
@@ -3092,7 +3623,7 @@
         <v>7.4399999999999994E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10">
       <c r="A68" s="12" t="s">
         <v>108</v>
       </c>
@@ -3112,11 +3643,11 @@
         <v>0.51280000000000003</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="13"/>
       <c r="B69" s="21" t="s">
         <v>110</v>
@@ -3134,11 +3665,11 @@
         <v>0.48720000000000002</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="58"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59"/>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="14" t="s">
         <v>57</v>
       </c>
@@ -3158,33 +3689,33 @@
         <v>0.51280000000000003</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+      <c r="J70" s="58"/>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="13"/>
       <c r="B71" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="57">
+      <c r="C71" s="56">
         <v>120</v>
       </c>
-      <c r="D71" s="58">
+      <c r="D71" s="57">
         <v>0.19969999999999999</v>
       </c>
-      <c r="E71" s="57">
+      <c r="E71" s="56">
         <v>76</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="57">
         <v>0.19489999999999999</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="13"/>
       <c r="B72" s="55" t="s">
         <v>1</v>
@@ -3202,11 +3733,11 @@
         <v>0.2923</v>
       </c>
       <c r="G72" s="10"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H72" s="58"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="14" t="s">
         <v>58</v>
       </c>
@@ -3226,33 +3757,33 @@
         <v>0.51280000000000003</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="58"/>
+      <c r="I73" s="58"/>
+      <c r="J73" s="58"/>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="13"/>
       <c r="B74" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="57">
+      <c r="C74" s="56">
         <v>186</v>
       </c>
-      <c r="D74" s="58">
+      <c r="D74" s="57">
         <v>0.3095</v>
       </c>
-      <c r="E74" s="57">
+      <c r="E74" s="56">
         <v>114</v>
       </c>
-      <c r="F74" s="58">
+      <c r="F74" s="57">
         <v>0.2923</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="13"/>
       <c r="B75" s="55" t="s">
         <v>1</v>
@@ -3270,7 +3801,7 @@
         <v>0.19489999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10">
       <c r="A76" s="10" t="s">
         <v>59</v>
       </c>
@@ -3290,7 +3821,7 @@
         <v>0.31280000000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10">
       <c r="A77" s="9"/>
       <c r="B77" s="21" t="s">
         <v>87</v>
@@ -3308,7 +3839,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10">
       <c r="A78" s="11"/>
       <c r="B78" s="36" t="s">
         <v>1</v>
@@ -3326,7 +3857,7 @@
         <v>0.48720000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10">
       <c r="A79" s="15" t="s">
         <v>60</v>
       </c>
@@ -3346,7 +3877,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10">
       <c r="A80" s="10"/>
       <c r="B80" s="21" t="s">
         <v>87</v>
@@ -3364,7 +3895,7 @@
         <v>6.4100000000000004E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="10"/>
       <c r="B81" s="55" t="s">
         <v>1</v>
@@ -3382,7 +3913,7 @@
         <v>0.42309999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="10" t="s">
         <v>61</v>
       </c>
@@ -3402,7 +3933,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="10"/>
       <c r="B83" s="21" t="s">
         <v>87</v>
@@ -3420,7 +3951,7 @@
         <v>0.1051</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="10"/>
       <c r="B84" s="55" t="s">
         <v>1</v>
@@ -3438,7 +3969,7 @@
         <v>0.3821</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="10" t="s">
         <v>62</v>
       </c>
@@ -3458,7 +3989,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="10"/>
       <c r="B86" s="21" t="s">
         <v>87</v>
@@ -3476,7 +4007,7 @@
         <v>2.5600000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="10"/>
       <c r="B87" s="55" t="s">
         <v>1</v>
@@ -3494,7 +4025,7 @@
         <v>0.46150000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="10" t="s">
         <v>63</v>
       </c>
@@ -3514,7 +4045,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="10"/>
       <c r="B89" s="21" t="s">
         <v>87</v>
@@ -3532,7 +4063,7 @@
         <v>8.9700000000000002E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="10"/>
       <c r="B90" s="55" t="s">
         <v>1</v>
@@ -3550,7 +4081,7 @@
         <v>0.39739999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="10" t="s">
         <v>64</v>
       </c>
@@ -3570,7 +4101,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="10"/>
       <c r="B92" s="21" t="s">
         <v>87</v>
@@ -3588,7 +4119,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="10"/>
       <c r="B93" s="55" t="s">
         <v>1</v>
@@ -3606,7 +4137,7 @@
         <v>0.3513</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="10" t="s">
         <v>65</v>
       </c>
@@ -3626,7 +4157,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="10"/>
       <c r="B95" s="21" t="s">
         <v>87</v>
@@ -3644,7 +4175,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="10"/>
       <c r="B96" s="36" t="s">
         <v>1</v>
@@ -3662,7 +4193,7 @@
         <v>0.42820000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="8" t="s">
         <v>42</v>
       </c>
@@ -3682,7 +4213,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="10"/>
       <c r="B98" s="21" t="s">
         <v>87</v>
@@ -3700,7 +4231,7 @@
         <v>0.15379999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="10"/>
       <c r="B99" s="55" t="s">
         <v>1</v>
@@ -3718,7 +4249,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="10" t="s">
         <v>43</v>
       </c>
@@ -3738,7 +4269,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="10"/>
       <c r="B101" s="21" t="s">
         <v>87</v>
@@ -3756,7 +4287,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="10"/>
       <c r="B102" s="55" t="s">
         <v>1</v>
@@ -3774,7 +4305,7 @@
         <v>0.2462</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="10" t="s">
         <v>44</v>
       </c>
@@ -3794,7 +4325,7 @@
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="10"/>
       <c r="B104" s="21" t="s">
         <v>87</v>
@@ -3812,7 +4343,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" s="16"/>
       <c r="B105" s="36" t="s">
         <v>1</v>
@@ -3830,7 +4361,7 @@
         <v>0.40260000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" s="8" t="s">
         <v>70</v>
       </c>
@@ -3850,7 +4381,7 @@
         <v>0.49230000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" s="9"/>
       <c r="B107" s="21" t="s">
         <v>67</v>
@@ -3868,7 +4399,7 @@
         <v>0.1615</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" s="9"/>
       <c r="B108" s="21" t="s">
         <v>68</v>
@@ -3886,7 +4417,7 @@
         <v>0.26669999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" s="9"/>
       <c r="B109" s="21" t="s">
         <v>69</v>
@@ -3904,7 +4435,7 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" s="11"/>
       <c r="B110" s="29" t="s">
         <v>35</v>
@@ -3922,7 +4453,7 @@
         <v>4.36E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" s="8" t="s">
         <v>74</v>
       </c>
@@ -3942,7 +4473,7 @@
         <v>0.42309999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" s="9"/>
       <c r="B112" s="21" t="s">
         <v>72</v>
@@ -3960,7 +4491,7 @@
         <v>0.1744</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" s="9"/>
       <c r="B113" s="21" t="s">
         <v>73</v>
@@ -3978,7 +4509,7 @@
         <v>0.31790000000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" s="11"/>
       <c r="B114" s="29" t="s">
         <v>1</v>
@@ -3996,7 +4527,7 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="8" t="s">
         <v>75</v>
       </c>
@@ -4016,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" s="9"/>
       <c r="B116" s="21" t="s">
         <v>76</v>
@@ -4034,7 +4565,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" s="9"/>
       <c r="B117" s="21" t="s">
         <v>77</v>
@@ -4052,7 +4583,7 @@
         <v>5.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="9"/>
       <c r="B118" s="21" t="s">
         <v>78</v>
@@ -4070,7 +4601,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" s="9"/>
       <c r="B119" s="21" t="s">
         <v>79</v>
@@ -4088,7 +4619,7 @@
         <v>0.43330000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" s="9"/>
       <c r="B120" s="21" t="s">
         <v>80</v>
@@ -4106,7 +4637,7 @@
         <v>1.54E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" s="11"/>
       <c r="B121" s="29" t="s">
         <v>81</v>
@@ -4124,7 +4655,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" s="8" t="s">
         <v>82</v>
       </c>
@@ -4144,7 +4675,7 @@
         <v>0.97950000000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" s="11"/>
       <c r="B123" s="29" t="s">
         <v>87</v>
@@ -4162,7 +4693,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" s="8" t="s">
         <v>83</v>
       </c>
@@ -4182,7 +4713,7 @@
         <v>0.96409999999999996</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="11"/>
       <c r="B125" s="29" t="s">
         <v>87</v>
@@ -4200,7 +4731,7 @@
         <v>3.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="3" t="s">
         <v>84</v>
       </c>
@@ -4220,7 +4751,7 @@
         <v>0.52049999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6">
       <c r="A127" s="5"/>
       <c r="B127" s="48" t="s">
         <v>87</v>
@@ -4238,7 +4769,7 @@
         <v>0.47949999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="4"/>
       <c r="B128" s="51" t="s">
         <v>1</v>
@@ -4265,495 +4796,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9192DB84-C057-1648-905A-E8DCCB2DE253}">
-  <dimension ref="A1:G63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="67"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="87" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="90"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="91"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="91"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="58"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="91"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="58"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="91"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="91"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="58"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="91"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="91"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="91"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="91"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="91"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="58"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="91"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="91"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="91"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="60"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="25"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="25"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="60"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="25"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="60"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="60"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="25"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="60"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="25"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="25"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="60"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="60"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="25"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF21A6A-3D51-EA49-81C0-526A025DCDD7}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
@@ -4762,18 +4813,18 @@
     <col min="9" max="9" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="56"/>
+      <c r="F1" s="101"/>
       <c r="G1" s="2" t="s">
         <v>209</v>
       </c>
@@ -4781,7 +4832,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>159</v>
       </c>
@@ -4790,21 +4841,21 @@
       <c r="E2" s="1">
         <v>330</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="93">
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="1">
         <v>165</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="93">
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -4814,52 +4865,52 @@
       <c r="C4" s="1">
         <v>157</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="92">
         <v>0.3165</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="95"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="94"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="B5" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C5" s="1">
         <v>235</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="92">
         <v>0.4738</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="95"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="94"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="1">
         <v>94</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="92">
         <v>0.1895</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="95"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="94"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="92">
         <v>2.0199999999999999E-2</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="95"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="94"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -4869,26 +4920,26 @@
       <c r="C8" s="1">
         <v>196</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="93">
         <v>0.3952</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="95"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="94"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>154</v>
       </c>
       <c r="C9" s="1">
         <v>300</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="93">
         <v>0.6048</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="95"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="94"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -4898,26 +4949,26 @@
       <c r="C10" s="1">
         <v>74</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="93">
         <v>0.1492</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="95"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="94"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="1">
         <v>83</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="93">
         <v>0.1673</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="95"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="94"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -4927,26 +4978,26 @@
       <c r="C12" s="1">
         <v>99</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="93">
         <v>0.1996</v>
       </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="95"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="94"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="1">
         <v>136</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="93">
         <v>0.2742</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="95"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="94"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>158</v>
       </c>
@@ -4956,47 +5007,47 @@
       <c r="C14" s="1">
         <v>23</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="93">
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="95"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="94"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="1">
         <v>71</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="93">
         <v>0.1431</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="95"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="94"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="94"/>
+      <c r="D16" s="93"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="95"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="94"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="94"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="95"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="94"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="94"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="95"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="94"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -5006,13 +5057,13 @@
       <c r="C19" s="1">
         <v>190</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="93">
         <v>0.3831</v>
       </c>
       <c r="E19" s="1">
         <v>200</v>
       </c>
-      <c r="F19" s="94">
+      <c r="F19" s="93">
         <v>0.40400000000000003</v>
       </c>
       <c r="G19">
@@ -5022,24 +5073,24 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C20" s="1">
         <v>306</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="93">
         <v>0.6169</v>
       </c>
       <c r="E20" s="1">
         <v>295</v>
       </c>
-      <c r="F20" s="94">
+      <c r="F20" s="93">
         <v>0.59599999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>172</v>
       </c>
@@ -5049,13 +5100,13 @@
       <c r="C21" s="1">
         <v>304</v>
       </c>
-      <c r="D21" s="94">
+      <c r="D21" s="93">
         <v>0.6129</v>
       </c>
       <c r="E21" s="1">
         <v>295</v>
       </c>
-      <c r="F21" s="94">
+      <c r="F21" s="93">
         <v>0.59599999999999997</v>
       </c>
       <c r="G21">
@@ -5065,41 +5116,41 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C22" s="1">
         <v>106</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="93">
         <v>0.2137</v>
       </c>
       <c r="E22" s="1">
         <v>109</v>
       </c>
-      <c r="F22" s="94">
+      <c r="F22" s="93">
         <v>0.22020000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="96" t="s">
+    <row r="23" spans="1:8">
+      <c r="B23" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1">
         <v>86</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="93">
         <v>0.1734</v>
       </c>
       <c r="E23" s="1">
         <v>91</v>
       </c>
-      <c r="F23" s="94">
+      <c r="F23" s="93">
         <v>0.18379999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -5109,13 +5160,13 @@
       <c r="C24" s="1">
         <v>304</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="93">
         <v>0.6129</v>
       </c>
       <c r="E24" s="1">
         <v>295</v>
       </c>
-      <c r="F24" s="94">
+      <c r="F24" s="93">
         <v>0.59599999999999997</v>
       </c>
       <c r="G24">
@@ -5125,48 +5176,48 @@
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="1">
         <v>84</v>
       </c>
-      <c r="D25" s="94">
+      <c r="D25" s="93">
         <v>0.1694</v>
       </c>
       <c r="E25" s="1">
         <v>91</v>
       </c>
-      <c r="F25" s="94">
+      <c r="F25" s="93">
         <v>0.18379999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="96" t="s">
+    <row r="26" spans="1:8">
+      <c r="B26" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>108</v>
       </c>
-      <c r="D26" s="94">
+      <c r="D26" s="93">
         <v>0.2177</v>
       </c>
       <c r="E26" s="1">
         <v>109</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="93">
         <v>0.22020000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15" customHeight="1">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="94"/>
+      <c r="D27" s="93"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="94"/>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="F27" s="93"/>
+    </row>
+    <row r="28" spans="1:8" ht="17">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -5176,108 +5227,108 @@
       <c r="C28" s="1">
         <v>51</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="93">
         <v>0.1028</v>
       </c>
       <c r="E28" s="1">
         <v>46</v>
       </c>
-      <c r="F28" s="94">
+      <c r="F28" s="93">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="G28" s="98">
+      <c r="G28" s="97">
         <v>0.69089999999999996</v>
       </c>
       <c r="H28" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>14</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="93">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="E29" s="1">
         <v>7</v>
       </c>
-      <c r="F29" s="94">
+      <c r="F29" s="93">
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1">
         <v>242</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="93">
         <v>0.4879</v>
       </c>
       <c r="E30" s="1">
         <v>241</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="93">
         <v>0.4869</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="93">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="93">
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>158</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="93">
         <v>0.31850000000000001</v>
       </c>
       <c r="E32" s="1">
         <v>166</v>
       </c>
-      <c r="F32" s="94">
+      <c r="F32" s="93">
         <v>0.33539999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="B33" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C33" s="1">
         <v>27</v>
       </c>
-      <c r="D33" s="94">
+      <c r="D33" s="93">
         <v>5.4399999999999997E-2</v>
       </c>
       <c r="E33" s="1">
         <v>30</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="93">
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -5287,13 +5338,13 @@
       <c r="C34" s="1">
         <v>7</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="93">
         <v>1.41E-2</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="93">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="G34">
@@ -5303,58 +5354,58 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>343</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="93">
         <v>0.6915</v>
       </c>
       <c r="E35" s="1">
         <v>355</v>
       </c>
-      <c r="F35" s="94">
+      <c r="F35" s="93">
         <v>0.71719999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="B36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>144</v>
       </c>
-      <c r="D36" s="94">
+      <c r="D36" s="93">
         <v>0.2903</v>
       </c>
       <c r="E36" s="1">
         <v>136</v>
       </c>
-      <c r="F36" s="94">
+      <c r="F36" s="93">
         <v>0.2747</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="B37" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C37" s="1">
         <v>2</v>
       </c>
-      <c r="D37" s="94">
+      <c r="D37" s="93">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E37" s="1">
         <v>0</v>
       </c>
-      <c r="F37" s="95">
+      <c r="F37" s="94">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5364,13 +5415,13 @@
       <c r="C38" s="1">
         <v>218</v>
       </c>
-      <c r="D38" s="94">
+      <c r="D38" s="93">
         <v>0.4395</v>
       </c>
       <c r="E38" s="1">
         <v>191</v>
       </c>
-      <c r="F38" s="94">
+      <c r="F38" s="93">
         <v>0.38590000000000002</v>
       </c>
       <c r="G38">
@@ -5380,109 +5431,109 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
       </c>
-      <c r="D39" s="94">
+      <c r="D39" s="93">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
       </c>
-      <c r="F39" s="94">
+      <c r="F39" s="93">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="94">
+      <c r="D40" s="93">
         <v>2E-3</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
-      <c r="F40" s="94">
+      <c r="F40" s="93">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C41" s="1">
         <v>262</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="93">
         <v>0.5282</v>
       </c>
       <c r="E41" s="1">
         <v>292</v>
       </c>
-      <c r="F41" s="94">
+      <c r="F41" s="93">
         <v>0.58989999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
       </c>
-      <c r="D42" s="94">
+      <c r="D42" s="93">
         <v>1.01E-2</v>
       </c>
       <c r="E42" s="1">
         <v>4</v>
       </c>
-      <c r="F42" s="94">
+      <c r="F42" s="93">
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="B43" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="1">
         <v>4</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="93">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="E43" s="1">
         <v>3</v>
       </c>
-      <c r="F43" s="94">
+      <c r="F43" s="93">
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="B44" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
-      <c r="D44" s="94">
+      <c r="D44" s="93">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
       </c>
-      <c r="F44" s="95">
+      <c r="F44" s="94">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -5492,13 +5543,13 @@
       <c r="C45" s="1">
         <v>84</v>
       </c>
-      <c r="D45" s="94">
+      <c r="D45" s="93">
         <v>0.1694</v>
       </c>
       <c r="E45" s="1">
         <v>86</v>
       </c>
-      <c r="F45" s="94">
+      <c r="F45" s="93">
         <v>0.17369999999999999</v>
       </c>
       <c r="G45">
@@ -5508,59 +5559,59 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C46" s="1">
         <v>90</v>
       </c>
-      <c r="D46" s="94">
+      <c r="D46" s="93">
         <v>0.18149999999999999</v>
       </c>
       <c r="E46" s="1">
         <v>80</v>
       </c>
-      <c r="F46" s="94">
+      <c r="F46" s="93">
         <v>0.16159999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="B47" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C47" s="1">
         <v>282</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="93">
         <v>0.56850000000000001</v>
       </c>
       <c r="E47" s="1">
         <v>292</v>
       </c>
-      <c r="F47" s="94">
+      <c r="F47" s="93">
         <v>0.58989999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="B48" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C48" s="1">
         <v>40</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="93">
         <v>8.0600000000000005E-2</v>
       </c>
       <c r="E48" s="1">
         <v>37</v>
       </c>
-      <c r="F48" s="94">
+      <c r="F48" s="93">
         <v>7.4700000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8" ht="17">
+      <c r="A49" s="102" t="s">
         <v>149</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5569,119 +5620,119 @@
       <c r="C49" s="1">
         <v>242</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="93">
         <v>0.4879</v>
       </c>
       <c r="E49" s="1">
         <v>261</v>
       </c>
-      <c r="F49" s="94">
+      <c r="F49" s="93">
         <v>0.52729999999999999</v>
       </c>
-      <c r="G49" s="98">
+      <c r="G49" s="97">
         <v>7.4609999999999996E-2</v>
       </c>
       <c r="H49" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="B50" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C50" s="1">
         <v>104</v>
       </c>
-      <c r="D50" s="94">
+      <c r="D50" s="93">
         <v>0.2097</v>
       </c>
       <c r="E50" s="1">
         <v>81</v>
       </c>
-      <c r="F50" s="94">
+      <c r="F50" s="93">
         <v>0.1636</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C51" s="1">
         <v>108</v>
       </c>
-      <c r="D51" s="94">
+      <c r="D51" s="93">
         <v>0.2177</v>
       </c>
       <c r="E51" s="1">
         <v>119</v>
       </c>
-      <c r="F51" s="94">
+      <c r="F51" s="93">
         <v>0.2404</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="B52" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="1">
         <v>18</v>
       </c>
-      <c r="D52" s="94">
+      <c r="D52" s="93">
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="E52" s="1">
         <v>22</v>
       </c>
-      <c r="F52" s="94">
+      <c r="F52" s="93">
         <v>4.4400000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="B53" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C53" s="1">
         <v>24</v>
       </c>
-      <c r="D53" s="94">
+      <c r="D53" s="93">
         <v>4.8399999999999999E-2</v>
       </c>
       <c r="E53" s="1">
         <v>12</v>
       </c>
-      <c r="F53" s="94">
+      <c r="F53" s="93">
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="94"/>
+      <c r="D54" s="93"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="94"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F54" s="93"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="94"/>
+      <c r="D55" s="93"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="94"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F55" s="93"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="94"/>
+      <c r="D56" s="93"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="94"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F56" s="93"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="94"/>
+      <c r="D57" s="93"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="94"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" s="93"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -5691,13 +5742,13 @@
       <c r="C58" s="1">
         <v>269</v>
       </c>
-      <c r="D58" s="94">
+      <c r="D58" s="93">
         <v>0.5423</v>
       </c>
       <c r="E58" s="1">
         <v>250</v>
       </c>
-      <c r="F58" s="94">
+      <c r="F58" s="93">
         <v>0.50509999999999999</v>
       </c>
       <c r="G58">
@@ -5707,25 +5758,25 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="1">
         <v>227</v>
       </c>
-      <c r="D59" s="94">
+      <c r="D59" s="93">
         <v>0.4577</v>
       </c>
       <c r="E59" s="1">
         <v>245</v>
       </c>
-      <c r="F59" s="94">
+      <c r="F59" s="93">
         <v>0.49490000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="102" t="s">
         <v>160</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5734,57 +5785,57 @@
       <c r="C60" s="1">
         <v>219</v>
       </c>
-      <c r="D60" s="94">
+      <c r="D60" s="93">
         <v>0.4415</v>
       </c>
       <c r="E60" s="1">
         <v>308</v>
       </c>
-      <c r="F60" s="94">
+      <c r="F60" s="93">
         <v>0.62219999999999998</v>
       </c>
-      <c r="G60" s="99">
+      <c r="G60" s="98">
         <v>1.9079999999999999E-8</v>
       </c>
       <c r="H60" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="B61" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="1">
         <v>275</v>
       </c>
-      <c r="D61" s="94">
+      <c r="D61" s="93">
         <v>0.5544</v>
       </c>
       <c r="E61" s="1">
         <v>187</v>
       </c>
-      <c r="F61" s="94">
+      <c r="F61" s="93">
         <v>0.37780000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="96" t="s">
+    <row r="62" spans="1:8">
+      <c r="B62" s="95" t="s">
         <v>151</v>
       </c>
       <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D62" s="94">
+      <c r="D62" s="93">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E62" s="96">
+      <c r="E62" s="95">
         <v>0</v>
       </c>
-      <c r="F62" s="97">
+      <c r="F62" s="96">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -5794,13 +5845,13 @@
       <c r="C63" s="1">
         <v>483</v>
       </c>
-      <c r="D63" s="94">
+      <c r="D63" s="93">
         <v>0.9738</v>
       </c>
       <c r="E63" s="1">
         <v>489</v>
       </c>
-      <c r="F63" s="94">
+      <c r="F63" s="93">
         <v>0.9879</v>
       </c>
       <c r="G63">
@@ -5810,24 +5861,24 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="B64" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C64" s="1">
         <v>13</v>
       </c>
-      <c r="D64" s="94">
+      <c r="D64" s="93">
         <v>2.6200000000000001E-2</v>
       </c>
       <c r="E64" s="1">
         <v>6</v>
       </c>
-      <c r="F64" s="94">
+      <c r="F64" s="93">
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>162</v>
       </c>
@@ -5837,13 +5888,13 @@
       <c r="C65" s="1">
         <v>494</v>
       </c>
-      <c r="D65" s="94">
+      <c r="D65" s="93">
         <v>0.996</v>
       </c>
       <c r="E65" s="1">
         <v>494</v>
       </c>
-      <c r="F65" s="94">
+      <c r="F65" s="93">
         <v>0.998</v>
       </c>
       <c r="G65">
@@ -5853,25 +5904,25 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="94">
+      <c r="D66" s="93">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E66" s="1">
         <v>1</v>
       </c>
-      <c r="F66" s="94">
+      <c r="F66" s="93">
         <v>2E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:8">
+      <c r="A67" s="102" t="s">
         <v>163</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5880,13 +5931,13 @@
       <c r="C67" s="1">
         <v>446</v>
       </c>
-      <c r="D67" s="94">
+      <c r="D67" s="93">
         <v>0.8992</v>
       </c>
       <c r="E67" s="1">
         <v>467</v>
       </c>
-      <c r="F67" s="94">
+      <c r="F67" s="93">
         <v>0.94340000000000002</v>
       </c>
       <c r="G67">
@@ -5896,24 +5947,24 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="B68" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C68" s="1">
         <v>50</v>
       </c>
-      <c r="D68" s="94">
+      <c r="D68" s="93">
         <v>0.1008</v>
       </c>
       <c r="E68" s="1">
         <v>28</v>
       </c>
-      <c r="F68" s="94">
+      <c r="F68" s="93">
         <v>5.6599999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -5923,56 +5974,56 @@
       <c r="C69" s="1">
         <v>259</v>
       </c>
-      <c r="D69" s="94">
+      <c r="D69" s="93">
         <v>0.5222</v>
       </c>
       <c r="E69" s="1">
         <v>289</v>
       </c>
-      <c r="F69" s="94">
+      <c r="F69" s="93">
         <v>0.58379999999999999</v>
       </c>
       <c r="G69">
         <v>5.5309999999999998E-2</v>
       </c>
-      <c r="H69" s="100" t="s">
+      <c r="H69" s="99" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="B70" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="1">
         <v>237</v>
       </c>
-      <c r="D70" s="94">
+      <c r="D70" s="93">
         <v>0.4778</v>
       </c>
       <c r="E70" s="1">
         <v>206</v>
       </c>
-      <c r="F70" s="94">
+      <c r="F70" s="93">
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="95" t="s">
         <v>167</v>
       </c>
       <c r="C71" s="1">
         <v>484</v>
       </c>
-      <c r="D71" s="94">
+      <c r="D71" s="93">
         <v>0.9758</v>
       </c>
       <c r="E71" s="1">
         <v>495</v>
       </c>
-      <c r="F71" s="97">
+      <c r="F71" s="96">
         <v>1</v>
       </c>
       <c r="G71">
@@ -5982,25 +6033,25 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="B72" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C72" s="1">
         <v>12</v>
       </c>
-      <c r="D72" s="94">
+      <c r="D72" s="93">
         <v>2.4199999999999999E-2</v>
       </c>
-      <c r="E72" s="96">
+      <c r="E72" s="95">
         <v>0</v>
       </c>
-      <c r="F72" s="97">
+      <c r="F72" s="96">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:8">
+      <c r="A73" s="102" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -6009,58 +6060,58 @@
       <c r="C73" s="1">
         <v>383</v>
       </c>
-      <c r="D73" s="94">
+      <c r="D73" s="93">
         <v>0.7722</v>
       </c>
       <c r="E73" s="1">
         <v>469</v>
       </c>
-      <c r="F73" s="94">
+      <c r="F73" s="93">
         <v>0.94750000000000001</v>
       </c>
-      <c r="G73" s="99" t="s">
+      <c r="G73" s="98" t="s">
         <v>203</v>
       </c>
       <c r="H73" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="B74" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C74" s="1">
         <v>37</v>
       </c>
-      <c r="D74" s="94">
+      <c r="D74" s="93">
         <v>7.46E-2</v>
       </c>
       <c r="E74" s="1">
         <v>5</v>
       </c>
-      <c r="F74" s="94">
+      <c r="F74" s="93">
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="96" t="s">
+    <row r="75" spans="1:8">
+      <c r="B75" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>76</v>
       </c>
-      <c r="D75" s="94">
+      <c r="D75" s="93">
         <v>0.1532</v>
       </c>
       <c r="E75" s="1">
         <v>21</v>
       </c>
-      <c r="F75" s="94">
+      <c r="F75" s="93">
         <v>4.24E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="102" t="s">
         <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6069,13 +6120,13 @@
       <c r="C76" s="1">
         <v>383</v>
       </c>
-      <c r="D76" s="94">
+      <c r="D76" s="93">
         <v>0.7722</v>
       </c>
       <c r="E76" s="1">
         <v>469</v>
       </c>
-      <c r="F76" s="94">
+      <c r="F76" s="93">
         <v>0.94750000000000001</v>
       </c>
       <c r="G76" t="s">
@@ -6085,42 +6136,42 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="B77" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C77" s="1">
         <v>73</v>
       </c>
-      <c r="D77" s="94">
+      <c r="D77" s="93">
         <v>0.1472</v>
       </c>
       <c r="E77" s="1">
         <v>20</v>
       </c>
-      <c r="F77" s="94">
+      <c r="F77" s="93">
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="96" t="s">
+    <row r="78" spans="1:8">
+      <c r="B78" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>40</v>
       </c>
-      <c r="D78" s="94">
+      <c r="D78" s="93">
         <v>8.0600000000000005E-2</v>
       </c>
       <c r="E78" s="1">
         <v>6</v>
       </c>
-      <c r="F78" s="94">
+      <c r="F78" s="93">
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:8" ht="17">
+      <c r="A79" s="102" t="s">
         <v>91</v>
       </c>
       <c r="B79" s="1">
@@ -6129,58 +6180,58 @@
       <c r="C79" s="1">
         <v>392</v>
       </c>
-      <c r="D79" s="94">
+      <c r="D79" s="93">
         <v>0.7903</v>
       </c>
       <c r="E79" s="1">
         <v>451</v>
       </c>
-      <c r="F79" s="94">
+      <c r="F79" s="93">
         <v>0.91110000000000002</v>
       </c>
-      <c r="G79" s="101" t="s">
+      <c r="G79" s="100" t="s">
         <v>207</v>
       </c>
       <c r="H79" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>14</v>
       </c>
-      <c r="D80" s="94">
+      <c r="D80" s="93">
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="E80" s="1">
         <v>6</v>
       </c>
-      <c r="F80" s="94">
+      <c r="F80" s="93">
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B81" s="96" t="s">
+    <row r="81" spans="1:13">
+      <c r="B81" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>90</v>
       </c>
-      <c r="D81" s="94">
+      <c r="D81" s="93">
         <v>0.18149999999999999</v>
       </c>
       <c r="E81" s="1">
         <v>38</v>
       </c>
-      <c r="F81" s="94">
+      <c r="F81" s="93">
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:13">
+      <c r="A82" s="102" t="s">
         <v>47</v>
       </c>
       <c r="B82" s="1">
@@ -6189,55 +6240,55 @@
       <c r="C82" s="1">
         <v>392</v>
       </c>
-      <c r="D82" s="94">
+      <c r="D82" s="93">
         <v>0.7903</v>
       </c>
       <c r="E82" s="1">
         <v>451</v>
       </c>
-      <c r="F82" s="94">
+      <c r="F82" s="93">
         <v>0.91110000000000002</v>
       </c>
       <c r="G82" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13">
       <c r="B83" s="1">
         <v>1</v>
       </c>
       <c r="C83" s="1">
         <v>88</v>
       </c>
-      <c r="D83" s="94">
+      <c r="D83" s="93">
         <v>0.1774</v>
       </c>
       <c r="E83" s="1">
         <v>38</v>
       </c>
-      <c r="F83" s="94">
+      <c r="F83" s="93">
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B84" s="96" t="s">
+    <row r="84" spans="1:13">
+      <c r="B84" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="1">
         <v>16</v>
       </c>
-      <c r="D84" s="94">
+      <c r="D84" s="93">
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="E84" s="1">
         <v>6</v>
       </c>
-      <c r="F84" s="94">
+      <c r="F84" s="93">
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:13">
+      <c r="A85" s="102" t="s">
         <v>174</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -6246,41 +6297,41 @@
       <c r="C85" s="1">
         <v>408</v>
       </c>
-      <c r="D85" s="94">
+      <c r="D85" s="93">
         <v>0.8226</v>
       </c>
       <c r="E85" s="1">
         <v>357</v>
       </c>
-      <c r="F85" s="94">
+      <c r="F85" s="93">
         <v>0.72119999999999995</v>
       </c>
       <c r="G85">
         <v>1.504E-4</v>
       </c>
-      <c r="H85" s="100" t="s">
+      <c r="H85" s="99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13">
       <c r="B86" t="s">
         <v>174</v>
       </c>
       <c r="C86" s="1">
         <v>88</v>
       </c>
-      <c r="D86" s="94">
+      <c r="D86" s="93">
         <v>0.1774</v>
       </c>
       <c r="E86" s="1">
         <v>138</v>
       </c>
-      <c r="F86" s="94">
+      <c r="F86" s="93">
         <v>0.27879999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:13" ht="17">
+      <c r="A87" s="102" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -6289,62 +6340,62 @@
       <c r="C87" s="1">
         <v>146</v>
       </c>
-      <c r="D87" s="94">
+      <c r="D87" s="93">
         <v>0.2944</v>
       </c>
       <c r="E87" s="1">
         <v>142</v>
       </c>
-      <c r="F87" s="94">
+      <c r="F87" s="93">
         <v>0.28689999999999999</v>
       </c>
-      <c r="G87" s="98">
+      <c r="G87" s="97">
         <v>2.2679999999999999E-2</v>
       </c>
       <c r="H87" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13">
       <c r="B88" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C88" s="1">
         <v>72</v>
       </c>
-      <c r="D88" s="94">
+      <c r="D88" s="93">
         <v>0.1452</v>
       </c>
       <c r="E88" s="1">
         <v>109</v>
       </c>
-      <c r="F88" s="94">
+      <c r="F88" s="93">
         <v>0.22020000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B89" s="96" t="s">
+    <row r="89" spans="1:13">
+      <c r="B89" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>278</v>
       </c>
-      <c r="D89" s="94">
+      <c r="D89" s="93">
         <v>0.5605</v>
       </c>
       <c r="E89" s="1">
         <v>244</v>
       </c>
-      <c r="F89" s="94">
+      <c r="F89" s="93">
         <v>0.4929</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
-      <c r="K89" s="94"/>
+      <c r="K89" s="93"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="94"/>
-    </row>
-    <row r="90" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+      <c r="M89" s="93"/>
+    </row>
+    <row r="90" spans="1:13" ht="17">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -6354,16 +6405,16 @@
       <c r="C90" s="1">
         <v>81</v>
       </c>
-      <c r="D90" s="94">
+      <c r="D90" s="93">
         <v>0.1633</v>
       </c>
       <c r="E90" s="1">
         <v>71</v>
       </c>
-      <c r="F90" s="94">
+      <c r="F90" s="93">
         <v>0.1434</v>
       </c>
-      <c r="G90" s="98">
+      <c r="G90" s="97">
         <v>0.34770000000000001</v>
       </c>
       <c r="H90" t="s">
@@ -6371,55 +6422,55 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
-      <c r="K90" s="94"/>
+      <c r="K90" s="93"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="94"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M90" s="93"/>
+    </row>
+    <row r="91" spans="1:13">
       <c r="B91" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C91" s="1">
         <v>18</v>
       </c>
-      <c r="D91" s="94">
+      <c r="D91" s="93">
         <v>3.6299999999999999E-2</v>
       </c>
       <c r="E91" s="1">
         <v>26</v>
       </c>
-      <c r="F91" s="94">
+      <c r="F91" s="93">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
-      <c r="K91" s="94"/>
+      <c r="K91" s="93"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="94"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B92" s="96" t="s">
+      <c r="M91" s="93"/>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="B92" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>397</v>
       </c>
-      <c r="D92" s="94">
+      <c r="D92" s="93">
         <v>0.8004</v>
       </c>
       <c r="E92" s="1">
         <v>398</v>
       </c>
-      <c r="F92" s="94">
+      <c r="F92" s="93">
         <v>0.80400000000000005</v>
       </c>
       <c r="J92" s="1"/>
-      <c r="K92" s="94"/>
+      <c r="K92" s="93"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="94"/>
-    </row>
-    <row r="93" spans="1:13" ht="17" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="M92" s="93"/>
+    </row>
+    <row r="93" spans="1:13" ht="17">
+      <c r="A93" s="102" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -6428,62 +6479,62 @@
       <c r="C93" s="1">
         <v>81</v>
       </c>
-      <c r="D93" s="94">
+      <c r="D93" s="93">
         <v>0.1633</v>
       </c>
       <c r="E93" s="1">
         <v>71</v>
       </c>
-      <c r="F93" s="94">
+      <c r="F93" s="93">
         <v>0.1434</v>
       </c>
-      <c r="G93" s="98">
+      <c r="G93" s="97">
         <v>2.47E-3</v>
       </c>
-      <c r="H93" s="100" t="s">
+      <c r="H93" s="99" t="s">
         <v>215</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
-      <c r="K93" s="93"/>
+      <c r="K93" s="92"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="93"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="92"/>
+    </row>
+    <row r="94" spans="1:13">
       <c r="B94" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C94" s="1">
         <v>70</v>
       </c>
-      <c r="D94" s="94">
+      <c r="D94" s="93">
         <v>0.1411</v>
       </c>
       <c r="E94" s="1">
         <v>112</v>
       </c>
-      <c r="F94" s="94">
+      <c r="F94" s="93">
         <v>0.2263</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B95" s="96" t="s">
+    <row r="95" spans="1:13">
+      <c r="B95" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C95" s="1">
         <v>345</v>
       </c>
-      <c r="D95" s="94">
+      <c r="D95" s="93">
         <v>0.6956</v>
       </c>
       <c r="E95" s="1">
         <v>312</v>
       </c>
-      <c r="F95" s="94">
+      <c r="F95" s="93">
         <v>0.63029999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -6493,13 +6544,13 @@
       <c r="C96" s="1">
         <v>81</v>
       </c>
-      <c r="D96" s="94">
+      <c r="D96" s="93">
         <v>0.1633</v>
       </c>
       <c r="E96" s="1">
         <v>71</v>
       </c>
-      <c r="F96" s="94">
+      <c r="F96" s="93">
         <v>0.1434</v>
       </c>
       <c r="G96">
@@ -6509,24 +6560,24 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="96" t="s">
+    <row r="97" spans="1:8">
+      <c r="B97" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="1">
         <v>415</v>
       </c>
-      <c r="D97" s="94">
+      <c r="D97" s="93">
         <v>0.8367</v>
       </c>
       <c r="E97" s="1">
         <v>424</v>
       </c>
-      <c r="F97" s="94">
+      <c r="F97" s="93">
         <v>0.85660000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="17">
       <c r="A98" t="s">
         <v>182</v>
       </c>
@@ -6536,57 +6587,57 @@
       <c r="C98" s="1">
         <v>81</v>
       </c>
-      <c r="D98" s="94">
+      <c r="D98" s="93">
         <v>0.1633</v>
       </c>
       <c r="E98" s="1">
         <v>71</v>
       </c>
-      <c r="F98" s="94">
+      <c r="F98" s="93">
         <v>0.1434</v>
       </c>
-      <c r="G98" s="98">
+      <c r="G98" s="97">
         <v>0.46360000000000001</v>
       </c>
       <c r="H98" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="B99" s="1">
         <v>1</v>
       </c>
       <c r="C99" s="1">
         <v>49</v>
       </c>
-      <c r="D99" s="94">
+      <c r="D99" s="93">
         <v>9.8799999999999999E-2</v>
       </c>
       <c r="E99" s="1">
         <v>42</v>
       </c>
-      <c r="F99" s="94">
+      <c r="F99" s="93">
         <v>8.48E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="96" t="s">
+    <row r="100" spans="1:8">
+      <c r="B100" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="1">
         <v>366</v>
       </c>
-      <c r="D100" s="94">
+      <c r="D100" s="93">
         <v>0.7379</v>
       </c>
       <c r="E100" s="1">
         <v>382</v>
       </c>
-      <c r="F100" s="94">
+      <c r="F100" s="93">
         <v>0.77170000000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>210</v>
       </c>
@@ -6596,13 +6647,13 @@
       <c r="C104" s="1">
         <v>262</v>
       </c>
-      <c r="D104" s="94">
+      <c r="D104" s="93">
         <v>0.5282</v>
       </c>
       <c r="E104" s="1">
         <v>292</v>
       </c>
-      <c r="F104" s="94">
+      <c r="F104" s="93">
         <v>0.58989999999999998</v>
       </c>
       <c r="G104">
@@ -6612,46 +6663,46 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="B105" s="1">
         <v>1</v>
       </c>
       <c r="C105" s="1">
         <v>218</v>
       </c>
-      <c r="D105" s="94">
+      <c r="D105" s="93">
         <v>0.4395</v>
       </c>
       <c r="E105" s="1">
         <v>191</v>
       </c>
-      <c r="F105" s="94">
+      <c r="F105" s="93">
         <v>0.38590000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="96" t="s">
+    <row r="106" spans="1:8">
+      <c r="B106" s="95" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>16</v>
       </c>
-      <c r="D106" s="94">
+      <c r="D106" s="93">
         <v>3.2300000000000002E-2</v>
       </c>
       <c r="E106" s="1">
         <v>12</v>
       </c>
-      <c r="F106" s="94">
+      <c r="F106" s="93">
         <v>2.4199999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B107" s="96"/>
+    <row r="107" spans="1:8">
+      <c r="B107" s="95"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="94"/>
+      <c r="D107" s="93"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="94"/>
+      <c r="F107" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6661,4 +6712,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89796C8-60B1-874E-B2E1-D4F501A24A7E}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="108"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="106" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" s="106" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="106" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="1">
+        <v>190</v>
+      </c>
+      <c r="D2" s="1">
+        <v>38.31</v>
+      </c>
+      <c r="E2" s="1">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1">
+        <v>47.27</v>
+      </c>
+      <c r="G2" s="1">
+        <v>122</v>
+      </c>
+      <c r="H2" s="1">
+        <v>36.97</v>
+      </c>
+      <c r="I2" s="107">
+        <v>6.8930000000000005E-2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="1">
+        <v>306</v>
+      </c>
+      <c r="D3" s="1">
+        <v>61.69</v>
+      </c>
+      <c r="E3" s="1">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="G3" s="1">
+        <v>208</v>
+      </c>
+      <c r="H3" s="1">
+        <v>63.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>304</v>
+      </c>
+      <c r="D4" s="1">
+        <v>61.29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="G4" s="1">
+        <v>208</v>
+      </c>
+      <c r="H4" s="1">
+        <v>63.03</v>
+      </c>
+      <c r="I4" s="107">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21.37</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1">
+        <v>26.06</v>
+      </c>
+      <c r="G5" s="1">
+        <v>66</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17.34</v>
+      </c>
+      <c r="E6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
+        <v>21.21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>56</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>304</v>
+      </c>
+      <c r="D7" s="1">
+        <v>61.29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>87</v>
+      </c>
+      <c r="F7" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="G7" s="1">
+        <v>208</v>
+      </c>
+      <c r="H7" s="1">
+        <v>63.03</v>
+      </c>
+      <c r="I7" s="107">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1">
+        <v>21.21</v>
+      </c>
+      <c r="G8" s="1">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>108</v>
+      </c>
+      <c r="D9" s="1">
+        <v>21.77</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1">
+        <v>26.06</v>
+      </c>
+      <c r="G9" s="1">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="E10" s="1">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13.94</v>
+      </c>
+      <c r="G10" s="1">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="I10" s="97">
+        <v>9.2390000000000007E-3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>242</v>
+      </c>
+      <c r="D12" s="1">
+        <v>48.79</v>
+      </c>
+      <c r="E12" s="1">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="G12" s="1">
+        <v>154</v>
+      </c>
+      <c r="H12" s="1">
+        <v>46.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>158</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31.85</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>24.85</v>
+      </c>
+      <c r="G14" s="1">
+        <v>125</v>
+      </c>
+      <c r="H14" s="1">
+        <v>37.880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="1">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G15" s="1">
+        <v>22</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CA1000/explorationData/metabolomic_patientinfo_usborn.xlsx
+++ b/CA1000/explorationData/metabolomic_patientinfo_usborn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yhwang/github/WorkStation/CA1000/explorationData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C97E4A-CA8C-4F4C-9AAC-992CAE8914F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CCAC1D-0E6B-0A4E-953F-3F91109482E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26320" activeTab="4" xr2:uid="{4377AA3B-FCA0-5E44-8F16-DAB2A9DBE543}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="categorical_ptb" sheetId="4" r:id="rId4"/>
     <sheet name="categorical_ptb_earlyterm" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -127,8 +127,51 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yeon Mi Hwang</author>
+  </authors>
+  <commentList>
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{C895A38E-E867-B34D-AE0B-8B8B4224939B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yeon Mi Hwang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>need to clarify with Scott</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="268">
   <si>
     <t>race</t>
   </si>
@@ -875,13 +918,70 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>previous preterm experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payment type </t>
+  </si>
+  <si>
+    <t>education level</t>
+  </si>
+  <si>
+    <t>c_section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoking status </t>
+  </si>
+  <si>
+    <t>pre-pregnancy bmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosomal abnormality  </t>
+  </si>
+  <si>
+    <t>"aanemia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anemia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any gestational hypertension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any preexisting diabetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPI less than 12 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">any preexisting hypertension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ini_lt_18" </t>
+  </si>
+  <si>
+    <t>"IPI_6_23"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPI between 6-23 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPI between 24-59 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPI between greater than 60 months </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mcal insurance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -994,6 +1094,13 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1187,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,9 +1406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1309,6 +1413,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2234,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D05F2E-E7C7-D74E-8380-A05E4FF3326A}">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2252,14 +2362,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="101"/>
+      <c r="F1" s="108"/>
       <c r="G1" t="s">
         <v>185</v>
       </c>
@@ -2268,7 +2378,7 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2396,7 +2506,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="102" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -2520,7 +2630,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="103" t="s">
         <v>85</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -2608,7 +2718,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="17">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="103" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -4800,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF21A6A-3D51-EA49-81C0-526A025DCDD7}">
   <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4817,14 +4927,14 @@
       <c r="A1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="108"/>
+      <c r="E1" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="101"/>
+      <c r="F1" s="108"/>
       <c r="G1" s="2" t="s">
         <v>209</v>
       </c>
@@ -5611,7 +5721,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="17">
-      <c r="A49" s="102" t="s">
+      <c r="A49" s="101" t="s">
         <v>149</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5776,7 +5886,7 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="102" t="s">
+      <c r="A60" s="101" t="s">
         <v>160</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5922,7 +6032,7 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="102" t="s">
+      <c r="A67" s="101" t="s">
         <v>163</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -6008,7 +6118,7 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="102" t="s">
+      <c r="A71" s="101" t="s">
         <v>166</v>
       </c>
       <c r="B71" s="95" t="s">
@@ -6051,7 +6161,7 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="101" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -6111,7 +6221,7 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="101" t="s">
         <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6171,7 +6281,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="17">
-      <c r="A79" s="102" t="s">
+      <c r="A79" s="101" t="s">
         <v>91</v>
       </c>
       <c r="B79" s="1">
@@ -6231,7 +6341,7 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="102" t="s">
+      <c r="A82" s="101" t="s">
         <v>47</v>
       </c>
       <c r="B82" s="1">
@@ -6288,7 +6398,7 @@
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="102" t="s">
+      <c r="A85" s="101" t="s">
         <v>174</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -6331,7 +6441,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="17">
-      <c r="A87" s="102" t="s">
+      <c r="A87" s="101" t="s">
         <v>175</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -6470,7 +6580,7 @@
       <c r="M92" s="93"/>
     </row>
     <row r="93" spans="1:13" ht="17">
-      <c r="A93" s="102" t="s">
+      <c r="A93" s="101" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -6710,16 +6820,17 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89796C8-60B1-874E-B2E1-D4F501A24A7E}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89796C8-60B1-874E-B2E1-D4F501A24A7E}">
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6730,40 +6841,40 @@
     <col min="5" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="108"/>
+    <col min="9" max="9" width="10.83203125" style="107"/>
     <col min="10" max="10" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="J1" s="106" t="s">
+      <c r="J1" s="105" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="111" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6787,7 +6898,7 @@
       <c r="H2" s="1">
         <v>36.97</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I2" s="106">
         <v>6.8930000000000005E-2</v>
       </c>
       <c r="J2" t="s">
@@ -6842,7 +6953,7 @@
       <c r="H4" s="1">
         <v>63.03</v>
       </c>
-      <c r="I4" s="107">
+      <c r="I4" s="106">
         <v>0.26550000000000001</v>
       </c>
       <c r="J4" t="s">
@@ -6920,7 +7031,7 @@
       <c r="H7" s="1">
         <v>63.03</v>
       </c>
-      <c r="I7" s="107">
+      <c r="I7" s="106">
         <v>0.25629999999999997</v>
       </c>
       <c r="J7" t="s">
@@ -7120,7 +7231,1646 @@
         <v>6.67</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="17">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>343</v>
+      </c>
+      <c r="D16" s="1">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="E16" s="1">
+        <v>117</v>
+      </c>
+      <c r="F16" s="1">
+        <v>70.91</v>
+      </c>
+      <c r="G16" s="1">
+        <v>238</v>
+      </c>
+      <c r="H16" s="1">
+        <v>72.12</v>
+      </c>
+      <c r="I16" s="97">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1">
+        <v>144</v>
+      </c>
+      <c r="D17" s="1">
+        <v>29.03</v>
+      </c>
+      <c r="E17" s="1">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1">
+        <v>28.48</v>
+      </c>
+      <c r="G17" s="1">
+        <v>89</v>
+      </c>
+      <c r="H17" s="1">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17">
+      <c r="A20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="97">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1">
+        <v>218</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43.95</v>
+      </c>
+      <c r="E21" s="1">
+        <v>72</v>
+      </c>
+      <c r="F21" s="1">
+        <v>43.64</v>
+      </c>
+      <c r="G21" s="1">
+        <v>119</v>
+      </c>
+      <c r="H21" s="1">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G23" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1">
+        <v>262</v>
+      </c>
+      <c r="D24" s="1">
+        <v>52.82</v>
+      </c>
+      <c r="E24" s="1">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="G24" s="1">
+        <v>204</v>
+      </c>
+      <c r="H24" s="1">
+        <v>61.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G25" s="1">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17">
+      <c r="A27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="1">
+        <v>282</v>
+      </c>
+      <c r="D27" s="1">
+        <v>56.85</v>
+      </c>
+      <c r="E27" s="1">
+        <v>86</v>
+      </c>
+      <c r="F27" s="1">
+        <v>52.12</v>
+      </c>
+      <c r="G27" s="1">
+        <v>206</v>
+      </c>
+      <c r="H27" s="1">
+        <v>62.42</v>
+      </c>
+      <c r="I27" s="97">
+        <v>0.52049999999999996</v>
+      </c>
+      <c r="J27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1">
+        <v>18.79</v>
+      </c>
+      <c r="G28" s="1">
+        <v>49</v>
+      </c>
+      <c r="H28" s="1">
+        <v>14.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="1">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="G29" s="1">
+        <v>58</v>
+      </c>
+      <c r="H29" s="1">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="1">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1">
+        <v>12.12</v>
+      </c>
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1">
+        <v>242</v>
+      </c>
+      <c r="D31" s="1">
+        <v>48.79</v>
+      </c>
+      <c r="E31" s="1">
+        <v>86</v>
+      </c>
+      <c r="F31" s="1">
+        <v>52.12</v>
+      </c>
+      <c r="G31" s="1">
+        <v>175</v>
+      </c>
+      <c r="H31" s="1">
+        <v>53.03</v>
+      </c>
+      <c r="I31" s="106">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20.97</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1">
+        <v>18.18</v>
+      </c>
+      <c r="G32" s="1">
+        <v>51</v>
+      </c>
+      <c r="H32" s="1">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1">
+        <v>108</v>
+      </c>
+      <c r="D33" s="1">
+        <v>21.77</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1">
+        <v>24.24</v>
+      </c>
+      <c r="G33" s="1">
+        <v>79</v>
+      </c>
+      <c r="H33" s="1">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="G34" s="1">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>269</v>
+      </c>
+      <c r="D36" s="1">
+        <v>54.23</v>
+      </c>
+      <c r="E36" s="1">
+        <v>95</v>
+      </c>
+      <c r="F36" s="1">
+        <v>57.58</v>
+      </c>
+      <c r="G36" s="1">
+        <v>155</v>
+      </c>
+      <c r="H36" s="1">
+        <v>46.97</v>
+      </c>
+      <c r="I36" s="97">
+        <v>4.197E-2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>227</v>
+      </c>
+      <c r="D37" s="1">
+        <v>45.77</v>
+      </c>
+      <c r="E37" s="1">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42.42</v>
+      </c>
+      <c r="G37" s="1">
+        <v>175</v>
+      </c>
+      <c r="H37" s="1">
+        <v>53.03</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>219</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44.15</v>
+      </c>
+      <c r="E38" s="1">
+        <v>95</v>
+      </c>
+      <c r="F38" s="1">
+        <v>57.58</v>
+      </c>
+      <c r="G38" s="1">
+        <v>213</v>
+      </c>
+      <c r="H38" s="1">
+        <v>64.55</v>
+      </c>
+      <c r="I38" s="98">
+        <v>4.2699999999999999E-8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>275</v>
+      </c>
+      <c r="D39" s="1">
+        <v>55.44</v>
+      </c>
+      <c r="E39" s="1">
+        <v>70</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42.42</v>
+      </c>
+      <c r="G39" s="1">
+        <v>117</v>
+      </c>
+      <c r="H39" s="1">
+        <v>35.450000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E40" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17">
+      <c r="A41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>483</v>
+      </c>
+      <c r="D41" s="1">
+        <v>97.38</v>
+      </c>
+      <c r="E41" s="1">
+        <v>163</v>
+      </c>
+      <c r="F41" s="1">
+        <v>98.79</v>
+      </c>
+      <c r="G41" s="1">
+        <v>326</v>
+      </c>
+      <c r="H41" s="1">
+        <v>98.79</v>
+      </c>
+      <c r="I41" s="97">
+        <v>0.27050000000000002</v>
+      </c>
+      <c r="J41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>13</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17">
+      <c r="A43" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>494</v>
+      </c>
+      <c r="D43" s="1">
+        <v>99.6</v>
+      </c>
+      <c r="E43" s="1">
+        <v>165</v>
+      </c>
+      <c r="F43" s="1">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>329</v>
+      </c>
+      <c r="H43" s="1">
+        <v>99.7</v>
+      </c>
+      <c r="I43" s="97">
+        <v>0.71640000000000004</v>
+      </c>
+      <c r="J43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E44" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="17">
+      <c r="A45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>446</v>
+      </c>
+      <c r="D45" s="1">
+        <v>89.92</v>
+      </c>
+      <c r="E45" s="1">
+        <v>161</v>
+      </c>
+      <c r="F45" s="1">
+        <v>97.58</v>
+      </c>
+      <c r="G45" s="1">
+        <v>306</v>
+      </c>
+      <c r="H45" s="1">
+        <v>92.73</v>
+      </c>
+      <c r="I45" s="97">
+        <v>5.9369999999999996E-3</v>
+      </c>
+      <c r="J45" s="109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1">
+        <v>10.08</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="G46" s="1">
+        <v>24</v>
+      </c>
+      <c r="H46" s="1">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="17">
+      <c r="A47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>259</v>
+      </c>
+      <c r="D47" s="1">
+        <v>52.22</v>
+      </c>
+      <c r="E47" s="1">
+        <v>112</v>
+      </c>
+      <c r="F47" s="1">
+        <v>67.88</v>
+      </c>
+      <c r="G47" s="1">
+        <v>177</v>
+      </c>
+      <c r="H47" s="1">
+        <v>53.64</v>
+      </c>
+      <c r="I47" s="97">
+        <v>1.6310000000000001E-3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>237</v>
+      </c>
+      <c r="D48" s="1">
+        <v>47.78</v>
+      </c>
+      <c r="E48" s="1">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>153</v>
+      </c>
+      <c r="H48" s="1">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17">
+      <c r="A49" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="E49" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="I49" s="97">
+        <v>2.3310000000000002E-3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="B50" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>484</v>
+      </c>
+      <c r="D50" s="1">
+        <v>97.58</v>
+      </c>
+      <c r="E50" s="1">
+        <v>165</v>
+      </c>
+      <c r="F50" s="1">
+        <v>100</v>
+      </c>
+      <c r="G50" s="1">
+        <v>330</v>
+      </c>
+      <c r="H50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="17">
+      <c r="A51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>383</v>
+      </c>
+      <c r="D51" s="1">
+        <v>77.22</v>
+      </c>
+      <c r="E51" s="1">
+        <v>151</v>
+      </c>
+      <c r="F51" s="1">
+        <v>91.52</v>
+      </c>
+      <c r="G51" s="1">
+        <v>318</v>
+      </c>
+      <c r="H51" s="1">
+        <v>96.36</v>
+      </c>
+      <c r="I51" s="110">
+        <v>3.15E-7</v>
+      </c>
+      <c r="J51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>37</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="B53" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="1">
+        <v>76</v>
+      </c>
+      <c r="D53" s="1">
+        <v>15.32</v>
+      </c>
+      <c r="E53" s="1">
+        <v>12</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7.27</v>
+      </c>
+      <c r="G53" s="1">
+        <v>9</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="17">
+      <c r="A54" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>383</v>
+      </c>
+      <c r="D54" s="1">
+        <v>77.22</v>
+      </c>
+      <c r="E54" s="1">
+        <v>151</v>
+      </c>
+      <c r="F54" s="1">
+        <v>91.52</v>
+      </c>
+      <c r="G54" s="1">
+        <v>318</v>
+      </c>
+      <c r="H54" s="1">
+        <v>96.36</v>
+      </c>
+      <c r="I54" s="110">
+        <v>2.3130000000000002E-9</v>
+      </c>
+      <c r="J54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="B55" s="1">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>73</v>
+      </c>
+      <c r="D55" s="1">
+        <v>14.72</v>
+      </c>
+      <c r="E55" s="1">
+        <v>11</v>
+      </c>
+      <c r="F55" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="G55" s="1">
+        <v>9</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="B56" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="1">
+        <v>40</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17">
+      <c r="A57" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>392</v>
+      </c>
+      <c r="D57" s="1">
+        <v>79.03</v>
+      </c>
+      <c r="E57" s="1">
+        <v>144</v>
+      </c>
+      <c r="F57" s="1">
+        <v>87.27</v>
+      </c>
+      <c r="G57" s="1">
+        <v>307</v>
+      </c>
+      <c r="H57" s="1">
+        <v>93.03</v>
+      </c>
+      <c r="I57" s="97">
+        <v>4.5089999999999998E-2</v>
+      </c>
+      <c r="J57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="B58" s="1">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1">
+        <v>14</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="B59" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="1">
+        <v>90</v>
+      </c>
+      <c r="D59" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="E59" s="1">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G59" s="1">
+        <v>21</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="17">
+      <c r="A60" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>408</v>
+      </c>
+      <c r="D60" s="1">
+        <v>82.26</v>
+      </c>
+      <c r="E60" s="1">
+        <v>108</v>
+      </c>
+      <c r="F60" s="1">
+        <v>65.45</v>
+      </c>
+      <c r="G60" s="1">
+        <v>249</v>
+      </c>
+      <c r="H60" s="1">
+        <v>75.45</v>
+      </c>
+      <c r="I60" s="110">
+        <v>3.184E-5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="B61" s="1">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1">
+        <v>88</v>
+      </c>
+      <c r="D61" s="1">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="E61" s="1">
+        <v>57</v>
+      </c>
+      <c r="F61" s="1">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="G61" s="1">
+        <v>81</v>
+      </c>
+      <c r="H61" s="1">
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="17">
+      <c r="A62" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>146</v>
+      </c>
+      <c r="D62" s="1">
+        <v>29.44</v>
+      </c>
+      <c r="E62" s="1">
+        <v>49</v>
+      </c>
+      <c r="F62" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>93</v>
+      </c>
+      <c r="H62" s="1">
+        <v>28.18</v>
+      </c>
+      <c r="I62" s="97">
+        <v>2.1259999999999999E-3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1">
+        <v>14.52</v>
+      </c>
+      <c r="E63" s="1">
+        <v>46</v>
+      </c>
+      <c r="F63" s="1">
+        <v>27.88</v>
+      </c>
+      <c r="G63" s="1">
+        <v>63</v>
+      </c>
+      <c r="H63" s="1">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1">
+        <v>278</v>
+      </c>
+      <c r="D64" s="1">
+        <v>56.05</v>
+      </c>
+      <c r="E64" s="1">
+        <v>70</v>
+      </c>
+      <c r="F64" s="1">
+        <v>42.42</v>
+      </c>
+      <c r="G64" s="1">
+        <v>174</v>
+      </c>
+      <c r="H64" s="1">
+        <v>52.73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17">
+      <c r="A65" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>81</v>
+      </c>
+      <c r="D65" s="1">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E65" s="1">
+        <v>22</v>
+      </c>
+      <c r="F65" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="G65" s="1">
+        <v>49</v>
+      </c>
+      <c r="H65" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="I65" s="97">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="J65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1">
+        <v>18</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="E66" s="1">
+        <v>11</v>
+      </c>
+      <c r="F66" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="G66" s="1">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="B67" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>397</v>
+      </c>
+      <c r="D67" s="1">
+        <v>80.040000000000006</v>
+      </c>
+      <c r="E67" s="1">
+        <v>132</v>
+      </c>
+      <c r="F67" s="1">
+        <v>80</v>
+      </c>
+      <c r="G67" s="1">
+        <v>266</v>
+      </c>
+      <c r="H67" s="1">
+        <v>80.61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>81</v>
+      </c>
+      <c r="D68" s="1">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E68" s="1">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="G68" s="1">
+        <v>49</v>
+      </c>
+      <c r="H68" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="I68" s="106">
+        <v>1.023E-2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>70</v>
+      </c>
+      <c r="D69" s="1">
+        <v>14.11</v>
+      </c>
+      <c r="E69" s="1">
+        <v>46</v>
+      </c>
+      <c r="F69" s="1">
+        <v>27.88</v>
+      </c>
+      <c r="G69" s="1">
+        <v>66</v>
+      </c>
+      <c r="H69" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1">
+        <v>345</v>
+      </c>
+      <c r="D70" s="1">
+        <v>69.56</v>
+      </c>
+      <c r="E70" s="1">
+        <v>97</v>
+      </c>
+      <c r="F70" s="1">
+        <v>58.79</v>
+      </c>
+      <c r="G70" s="1">
+        <v>215</v>
+      </c>
+      <c r="H70" s="1">
+        <v>65.150000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17">
+      <c r="A71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B71" s="1">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1">
+        <v>81</v>
+      </c>
+      <c r="D71" s="1">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E71" s="1">
+        <v>22</v>
+      </c>
+      <c r="F71" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="G71" s="1">
+        <v>49</v>
+      </c>
+      <c r="H71" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="I71" s="97">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="J71" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="B72" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>415</v>
+      </c>
+      <c r="D72" s="1">
+        <v>83.67</v>
+      </c>
+      <c r="E72" s="1">
+        <v>143</v>
+      </c>
+      <c r="F72" s="1">
+        <v>86.67</v>
+      </c>
+      <c r="G72" s="1">
+        <v>281</v>
+      </c>
+      <c r="H72" s="1">
+        <v>85.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="17">
+      <c r="A73" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>81</v>
+      </c>
+      <c r="D73" s="1">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E73" s="1">
+        <v>22</v>
+      </c>
+      <c r="F73" s="1">
+        <v>13.33</v>
+      </c>
+      <c r="G73" s="1">
+        <v>49</v>
+      </c>
+      <c r="H73" s="1">
+        <v>14.85</v>
+      </c>
+      <c r="I73" s="97">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="J73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1">
+        <v>49</v>
+      </c>
+      <c r="D74" s="1">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="E74" s="1">
+        <v>16</v>
+      </c>
+      <c r="F74" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G74" s="1">
+        <v>26</v>
+      </c>
+      <c r="H74" s="1">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="B75" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>366</v>
+      </c>
+      <c r="D75" s="1">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="E75" s="1">
+        <v>127</v>
+      </c>
+      <c r="F75" s="1">
+        <v>76.97</v>
+      </c>
+      <c r="G75" s="1">
+        <v>255</v>
+      </c>
+      <c r="H75" s="1">
+        <v>77.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="17">
+      <c r="A76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>262</v>
+      </c>
+      <c r="D76" s="1">
+        <v>52.82</v>
+      </c>
+      <c r="E76" s="1">
+        <v>88</v>
+      </c>
+      <c r="F76" s="1">
+        <v>53.33</v>
+      </c>
+      <c r="G76" s="1">
+        <v>204</v>
+      </c>
+      <c r="H76" s="1">
+        <v>61.82</v>
+      </c>
+      <c r="I76" s="97">
+        <v>4.2590000000000003E-2</v>
+      </c>
+      <c r="J76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>218</v>
+      </c>
+      <c r="D77" s="1">
+        <v>43.95</v>
+      </c>
+      <c r="E77" s="1">
+        <v>72</v>
+      </c>
+      <c r="F77" s="1">
+        <v>43.64</v>
+      </c>
+      <c r="G77" s="1">
+        <v>119</v>
+      </c>
+      <c r="H77" s="1">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="B78" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1">
+        <v>16</v>
+      </c>
+      <c r="D78" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="E78" s="1">
+        <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="G78" s="1">
+        <v>7</v>
+      </c>
+      <c r="H78" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>